--- a/src/main/resources/excelTemplates/template.xlsx
+++ b/src/main/resources/excelTemplates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyuan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF2144C-E020-42EA-8FB8-5B1AEA2E88D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4721D5E2-8335-4F6A-8378-2BEF1113F6FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="2235" windowWidth="21600" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重量（公斤）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,15 +51,38 @@
     <t>肉制品</t>
   </si>
   <si>
+    <t>黑牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公斤</t>
+  </si>
+  <si>
+    <t>公斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>肉制品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铁制品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑牛肉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,8 +91,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,10 +130,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -395,55 +437,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>123</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="5">
+        <f ca="1">NOW()</f>
+        <v>44314.688070254633</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <f ca="1">NOW()</f>
-        <v>44309.921063888891</v>
-      </c>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -451,12 +502,18 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28FCAB32-B34C-49F3-9448-15F91777BD10}">
           <x14:formula1>
             <xm:f>Sheet2!$K$14:$K$15</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E351CDB5-7AB8-4CA8-A1D6-89FE4C43A233}">
+          <x14:formula1>
+            <xm:f>Sheet2!$P$13:$P$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -466,7 +523,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A198EE1C-9BF4-4766-946B-CE7767292668}">
-  <dimension ref="K14:K15"/>
+  <dimension ref="K13:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
@@ -474,14 +531,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="14" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K14" t="s">
-        <v>7</v>
+    <row r="13" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="15" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K15" t="s">
-        <v>8</v>
+    <row r="14" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
